--- a/Datos/obras/plays_data.xlsx
+++ b/Datos/obras/plays_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jesus\Desktop\Curso 5\Cuatri I\DAV\dav_project\datos\obras\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EA7508B-3083-4F5D-9D91-EC0021FC6C62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEFA2CF2-203F-4AB5-A8E1-EB6949FF7841}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="418">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="419">
   <si>
     <t>Titulo</t>
   </si>
@@ -1601,6 +1601,9 @@
   </si>
   <si>
     <t>Ano_inicio</t>
+  </si>
+  <si>
+    <t>entradas_vendidas</t>
   </si>
 </sst>
 </file>
@@ -1963,10 +1966,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H100"/>
+  <dimension ref="A1:I100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1979,9 +1982,10 @@
     <col min="6" max="6" width="65" customWidth="1"/>
     <col min="7" max="7" width="21" customWidth="1"/>
     <col min="8" max="8" width="15.140625" customWidth="1"/>
+    <col min="9" max="9" width="20.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2006,8 +2010,11 @@
       <c r="H1" s="1" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I1" s="1" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -2032,8 +2039,11 @@
       <c r="H2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I2">
+        <v>1517</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -2058,8 +2068,11 @@
       <c r="H3" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I3">
+        <v>3206</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -2084,8 +2097,11 @@
       <c r="H4" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I4">
+        <v>2801</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -2110,8 +2126,11 @@
       <c r="H5" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I5">
+        <v>2202</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -2136,8 +2155,11 @@
       <c r="H6" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I6">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>36</v>
       </c>
@@ -2162,8 +2184,11 @@
       <c r="H7" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I7">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>41</v>
       </c>
@@ -2188,8 +2213,11 @@
       <c r="H8" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I8">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>45</v>
       </c>
@@ -2214,8 +2242,11 @@
       <c r="H9" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I9">
+        <v>3046</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>49</v>
       </c>
@@ -2240,8 +2271,11 @@
       <c r="H10" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I10">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>53</v>
       </c>
@@ -2266,8 +2300,11 @@
       <c r="H11" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I11">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>57</v>
       </c>
@@ -2292,8 +2329,11 @@
       <c r="H12" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I12">
+        <v>3019</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>61</v>
       </c>
@@ -2318,8 +2358,11 @@
       <c r="H13" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I13">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>65</v>
       </c>
@@ -2344,8 +2387,11 @@
       <c r="H14" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I14">
+        <v>1372</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>69</v>
       </c>
@@ -2370,8 +2416,11 @@
       <c r="H15" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I15">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>73</v>
       </c>
@@ -2396,8 +2445,11 @@
       <c r="H16" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I16">
+        <v>2811</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>77</v>
       </c>
@@ -2422,8 +2474,11 @@
       <c r="H17" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I17">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>81</v>
       </c>
@@ -2448,8 +2503,11 @@
       <c r="H18" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I18">
+        <v>1631</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>85</v>
       </c>
@@ -2474,8 +2532,11 @@
       <c r="H19" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I19">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>89</v>
       </c>
@@ -2500,8 +2561,11 @@
       <c r="H20" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I20">
+        <v>2508</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>93</v>
       </c>
@@ -2526,8 +2590,11 @@
       <c r="H21" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I21">
+        <v>1897</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>97</v>
       </c>
@@ -2552,8 +2619,11 @@
       <c r="H22" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I22">
+        <v>1585</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>101</v>
       </c>
@@ -2578,8 +2648,11 @@
       <c r="H23" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I23">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>105</v>
       </c>
@@ -2604,8 +2677,11 @@
       <c r="H24" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I24">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>109</v>
       </c>
@@ -2630,8 +2706,11 @@
       <c r="H25" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>114</v>
       </c>
@@ -2656,8 +2735,11 @@
       <c r="H26" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I26">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>120</v>
       </c>
@@ -2682,8 +2764,11 @@
       <c r="H27" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I27">
+        <v>1481</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>124</v>
       </c>
@@ -2708,8 +2793,11 @@
       <c r="H28" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I28">
+        <v>2308</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>128</v>
       </c>
@@ -2734,8 +2822,11 @@
       <c r="H29" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I29">
+        <v>2368</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>132</v>
       </c>
@@ -2760,8 +2851,11 @@
       <c r="H30" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I30">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>136</v>
       </c>
@@ -2786,8 +2880,11 @@
       <c r="H31" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I31">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>140</v>
       </c>
@@ -2812,8 +2909,11 @@
       <c r="H32" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I32">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>144</v>
       </c>
@@ -2838,8 +2938,11 @@
       <c r="H33" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I33">
+        <v>3301</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>148</v>
       </c>
@@ -2864,8 +2967,11 @@
       <c r="H34" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I34">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>153</v>
       </c>
@@ -2890,8 +2996,11 @@
       <c r="H35" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I35">
+        <v>2392</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>157</v>
       </c>
@@ -2916,8 +3025,11 @@
       <c r="H36" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I36">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>161</v>
       </c>
@@ -2942,8 +3054,11 @@
       <c r="H37" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I37">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>165</v>
       </c>
@@ -2968,8 +3083,11 @@
       <c r="H38" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I38">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>169</v>
       </c>
@@ -2994,8 +3112,11 @@
       <c r="H39" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I39">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>173</v>
       </c>
@@ -3020,8 +3141,11 @@
       <c r="H40" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I40">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>177</v>
       </c>
@@ -3046,8 +3170,11 @@
       <c r="H41" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I41">
+        <v>3001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>181</v>
       </c>
@@ -3072,8 +3199,11 @@
       <c r="H42" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I42">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>185</v>
       </c>
@@ -3098,8 +3228,11 @@
       <c r="H43" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I43">
+        <v>2411</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>189</v>
       </c>
@@ -3124,8 +3257,11 @@
       <c r="H44" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I44">
+        <v>2631</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>193</v>
       </c>
@@ -3150,8 +3286,11 @@
       <c r="H45" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I45">
+        <v>2164</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>197</v>
       </c>
@@ -3176,8 +3315,11 @@
       <c r="H46" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I46">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>201</v>
       </c>
@@ -3202,8 +3344,11 @@
       <c r="H47" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I47">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>205</v>
       </c>
@@ -3228,8 +3373,11 @@
       <c r="H48" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I48">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>209</v>
       </c>
@@ -3254,8 +3402,11 @@
       <c r="H49" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I49">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>213</v>
       </c>
@@ -3280,8 +3431,11 @@
       <c r="H50" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I50">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>217</v>
       </c>
@@ -3306,8 +3460,11 @@
       <c r="H51" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I51">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>221</v>
       </c>
@@ -3332,8 +3489,11 @@
       <c r="H52" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I52">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>225</v>
       </c>
@@ -3358,8 +3518,11 @@
       <c r="H53" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I53">
+        <v>1947</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>229</v>
       </c>
@@ -3384,8 +3547,11 @@
       <c r="H54" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I54">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>233</v>
       </c>
@@ -3410,8 +3576,11 @@
       <c r="H55" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I55">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>237</v>
       </c>
@@ -3436,8 +3605,11 @@
       <c r="H56" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I56">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>241</v>
       </c>
@@ -3462,8 +3634,11 @@
       <c r="H57" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I57">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>245</v>
       </c>
@@ -3488,8 +3663,11 @@
       <c r="H58" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I58">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>249</v>
       </c>
@@ -3514,8 +3692,11 @@
       <c r="H59" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I59">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>253</v>
       </c>
@@ -3540,8 +3721,11 @@
       <c r="H60" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I60">
+        <v>2415</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>81</v>
       </c>
@@ -3566,8 +3750,11 @@
       <c r="H61" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I61">
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>260</v>
       </c>
@@ -3592,8 +3779,11 @@
       <c r="H62" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I62">
+        <v>1812</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>264</v>
       </c>
@@ -3618,8 +3808,11 @@
       <c r="H63" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I63">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>268</v>
       </c>
@@ -3644,8 +3837,11 @@
       <c r="H64" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I64">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>272</v>
       </c>
@@ -3670,8 +3866,11 @@
       <c r="H65" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I65">
+        <v>3024</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>276</v>
       </c>
@@ -3696,8 +3895,11 @@
       <c r="H66" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I66">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>281</v>
       </c>
@@ -3722,8 +3924,11 @@
       <c r="H67" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I67">
+        <v>2469</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>285</v>
       </c>
@@ -3748,8 +3953,11 @@
       <c r="H68" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I68">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>289</v>
       </c>
@@ -3774,8 +3982,11 @@
       <c r="H69" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I69">
+        <v>3106</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>293</v>
       </c>
@@ -3800,8 +4011,11 @@
       <c r="H70" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I70">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>297</v>
       </c>
@@ -3826,8 +4040,11 @@
       <c r="H71" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I71">
+        <v>1631</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>301</v>
       </c>
@@ -3852,8 +4069,11 @@
       <c r="H72" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I72">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>165</v>
       </c>
@@ -3878,8 +4098,11 @@
       <c r="H73" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I73">
+        <v>1632</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>307</v>
       </c>
@@ -3904,8 +4127,11 @@
       <c r="H74" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I74">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>311</v>
       </c>
@@ -3930,8 +4156,11 @@
       <c r="H75" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I75">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>315</v>
       </c>
@@ -3956,8 +4185,11 @@
       <c r="H76" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I76">
+        <v>1811</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>319</v>
       </c>
@@ -3982,8 +4214,11 @@
       <c r="H77" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I77">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>323</v>
       </c>
@@ -4008,8 +4243,11 @@
       <c r="H78" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I78">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>327</v>
       </c>
@@ -4034,8 +4272,11 @@
       <c r="H79" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I79">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>331</v>
       </c>
@@ -4060,8 +4301,11 @@
       <c r="H80" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I80">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>335</v>
       </c>
@@ -4086,8 +4330,11 @@
       <c r="H81" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I81">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>339</v>
       </c>
@@ -4109,8 +4356,11 @@
       <c r="H82" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I82">
+        <v>1499</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>344</v>
       </c>
@@ -4135,8 +4385,11 @@
       <c r="H83" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I83">
+        <v>2255</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>348</v>
       </c>
@@ -4161,8 +4414,11 @@
       <c r="H84" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I84">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>352</v>
       </c>
@@ -4184,8 +4440,11 @@
       <c r="H85" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I85">
+        <v>2208</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>356</v>
       </c>
@@ -4210,8 +4469,11 @@
       <c r="H86" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I86">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>360</v>
       </c>
@@ -4236,8 +4498,11 @@
       <c r="H87" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I87">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>364</v>
       </c>
@@ -4262,8 +4527,11 @@
       <c r="H88" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I88">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>368</v>
       </c>
@@ -4288,8 +4556,11 @@
       <c r="H89" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I89">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>372</v>
       </c>
@@ -4314,8 +4585,11 @@
       <c r="H90" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I90">
+        <v>1672</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>376</v>
       </c>
@@ -4340,8 +4614,11 @@
       <c r="H91" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I91">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>380</v>
       </c>
@@ -4366,8 +4643,11 @@
       <c r="H92" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I92">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>384</v>
       </c>
@@ -4392,8 +4672,11 @@
       <c r="H93" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I93">
+        <v>2414</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>388</v>
       </c>
@@ -4418,8 +4701,11 @@
       <c r="H94" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I94">
+        <v>2523</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>392</v>
       </c>
@@ -4444,8 +4730,11 @@
       <c r="H95" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I95">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>396</v>
       </c>
@@ -4470,8 +4759,11 @@
       <c r="H96" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I96">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>400</v>
       </c>
@@ -4496,8 +4788,11 @@
       <c r="H97" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I97">
+        <v>2611</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>404</v>
       </c>
@@ -4522,8 +4817,11 @@
       <c r="H98" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I98">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>408</v>
       </c>
@@ -4548,8 +4846,11 @@
       <c r="H99" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I99">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>412</v>
       </c>
@@ -4573,6 +4874,9 @@
       </c>
       <c r="H100" t="b">
         <v>0</v>
+      </c>
+      <c r="I100">
+        <v>175</v>
       </c>
     </row>
   </sheetData>
